--- a/biology/Médecine/Régorafénib/Régorafénib.xlsx
+++ b/biology/Médecine/Régorafénib/Régorafénib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9goraf%C3%A9nib</t>
+          <t>Régorafénib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régorafénib (nom commercial Stivarga) est un médicament anticancéreux avec une activité inhibitrice de plusieurs kinases dont celles contre les récepteurs à activité tyrosine kinase développé par Bayer Pharma AG. Le médicament est approuvé aux États-Unis depuis le 27 septembre 2012[1] et dans l'Union Européenne depuis le 27 juin 2013[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régorafénib (nom commercial Stivarga) est un médicament anticancéreux avec une activité inhibitrice de plusieurs kinases dont celles contre les récepteurs à activité tyrosine kinase développé par Bayer Pharma AG. Le médicament est approuvé aux États-Unis depuis le 27 septembre 2012 et dans l'Union Européenne depuis le 27 juin 2013.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9goraf%C3%A9nib</t>
+          <t>Régorafénib</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La molécule inhibe plusieurs kinases dont le facteur de croissance de l’endothélium vasculaire, le récepteur à activité tyrosine kinase, le PDGFR-β (Platelet-derived growth factor receptor (en)), le récepteur au facteur de croissance des fibroblastes 1, ainsi que plusieurs autres kinases mutés oncogéniques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La molécule inhibe plusieurs kinases dont le facteur de croissance de l’endothélium vasculaire, le récepteur à activité tyrosine kinase, le PDGFR-β (Platelet-derived growth factor receptor (en)), le récepteur au facteur de croissance des fibroblastes 1, ainsi que plusieurs autres kinases mutés oncogéniques.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9goraf%C3%A9nib</t>
+          <t>Régorafénib</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régorafénib a démontré une amélioration de la survie globale pour les patients atteints de cancers du côlon métastatiques[4] et dans les tumeurs stromales gastrointestinales résistantes à d'autres inhibiteurs de la tyrosine kinase[5], dans les carcinomes hépato-cellulaires résistant au sorafénib[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régorafénib a démontré une amélioration de la survie globale pour les patients atteints de cancers du côlon métastatiques et dans les tumeurs stromales gastrointestinales résistantes à d'autres inhibiteurs de la tyrosine kinase, dans les carcinomes hépato-cellulaires résistant au sorafénib.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9goraf%C3%A9nib</t>
+          <t>Régorafénib</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus fréquents sont des réactions cutanées (érythrodysesthésie palmo-plantaire ou syndrome pied-main), la fatigue, l'hypertension artérielle[4], la diarrhée, l'asthénie, la dysphonie (raucité de la voix), la perte d'appétit[2]. Quelques décès ont été rapportés à la suite d'une toxicité hépatique aiguë survenue dès le début du traitement, c'est pourquoi il est recommandé de suivre les paramètres hépatiques pendant les premières semaines du traitement[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus fréquents sont des réactions cutanées (érythrodysesthésie palmo-plantaire ou syndrome pied-main), la fatigue, l'hypertension artérielle, la diarrhée, l'asthénie, la dysphonie (raucité de la voix), la perte d'appétit. Quelques décès ont été rapportés à la suite d'une toxicité hépatique aiguë survenue dès le début du traitement, c'est pourquoi il est recommandé de suivre les paramètres hépatiques pendant les premières semaines du traitement.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9goraf%C3%A9nib</t>
+          <t>Régorafénib</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix de la cure est estimée à près de 20 000 dollars en 2012-2013[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix de la cure est estimée à près de 20 000 dollars en 2012-2013.
 </t>
         </is>
       </c>
